--- a/PHPSpreadsheet/excel/จค01.xlsx
+++ b/PHPSpreadsheet/excel/จค01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>การไฟฟ้าส่วนภูมิภาค</t>
   </si>
@@ -23,7 +23,7 @@
     <t>รายละเอียดของงานเพื่อขออนุมัติจ่าย</t>
   </si>
   <si>
-    <t>Phanlop55555555555555</t>
+    <t>Phanlop7777777777777777777777</t>
   </si>
   <si>
     <t>จำนวนเงินตามสัญญา</t>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>ค่าจ้าง จำนวน</t>
-  </si>
-  <si>
-    <t>จ่าย</t>
   </si>
   <si>
     <t>บวก ภาษีมูลค่าเพิ่ม</t>
@@ -946,7 +943,7 @@
         <v>480676.1</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>4</v>
@@ -957,18 +954,18 @@
     <row r="4" spans="1:17">
       <c r="A4" s="16"/>
       <c r="B4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="H4" s="20"/>
       <c r="I4" s="20"/>
@@ -1006,10 +1003,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30" t="s">
@@ -1037,33 +1034,33 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
       <c r="D7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="H7" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="9" t="s">
         <v>11</v>
@@ -1077,7 +1074,7 @@
     <row r="8" spans="1:17">
       <c r="A8" s="30"/>
       <c r="B8" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
@@ -1100,32 +1097,32 @@
         <v>1</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="34">
         <v>880</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="34">
-        <v>3695</v>
+        <v>3035</v>
       </c>
       <c r="G9" s="34">
-        <v>3251600</v>
+        <v>2670800</v>
       </c>
       <c r="H9" s="34">
-        <v>880</v>
+        <v>8</v>
       </c>
       <c r="I9" s="34">
-        <v>3251600</v>
+        <v>24280</v>
       </c>
       <c r="J9" s="34">
-        <v>880</v>
+        <v>8</v>
       </c>
       <c r="K9" s="34">
-        <v>3251600</v>
+        <v>24280</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9"/>
@@ -1139,32 +1136,32 @@
         <v>2</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34">
         <v>6</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F10" s="34">
-        <v>2480</v>
+        <v>1590</v>
       </c>
       <c r="G10" s="34">
-        <v>14880</v>
+        <v>9540</v>
       </c>
       <c r="H10" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="34">
-        <v>14880</v>
+        <v>7950</v>
       </c>
       <c r="J10" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="34">
-        <v>14880</v>
+        <v>7950</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>12</v>
@@ -1178,7 +1175,7 @@
     <row r="11" spans="1:17">
       <c r="A11" s="12"/>
       <c r="B11" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
@@ -1203,32 +1200,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="34">
         <v>4</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="34">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G12" s="34">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="H12" s="34">
         <v>4</v>
       </c>
       <c r="I12" s="34">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="J12" s="34">
         <v>4</v>
       </c>
       <c r="K12" s="34">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>14</v>
@@ -1244,32 +1241,32 @@
         <v>2</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="34">
         <v>62</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="34">
-        <v>1</v>
+        <v>3695</v>
       </c>
       <c r="G13" s="34">
-        <v>62</v>
+        <v>229090</v>
       </c>
       <c r="H13" s="34">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="I13" s="34">
-        <v>62</v>
+        <v>22170</v>
       </c>
       <c r="J13" s="34">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="K13" s="34">
-        <v>62</v>
+        <v>22170</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13"/>
@@ -1283,32 +1280,32 @@
         <v>3</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34">
         <v>1</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="34">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="G14" s="34">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="H14" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" s="34">
-        <v>1</v>
+        <v>560</v>
       </c>
       <c r="J14" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="34">
-        <v>1</v>
+        <v>560</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>15</v>
@@ -1317,7 +1314,7 @@
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="11"/>
     </row>
@@ -1326,32 +1323,32 @@
         <v>4</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34">
         <v>1</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="34">
-        <v>1</v>
+        <v>1850</v>
       </c>
       <c r="G15" s="34">
-        <v>1</v>
+        <v>1850</v>
       </c>
       <c r="H15" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="34">
-        <v>1</v>
+        <v>3700</v>
       </c>
       <c r="J15" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" s="34">
-        <v>1</v>
+        <v>3700</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>16</v>
@@ -1360,14 +1357,14 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="12"/>
       <c r="B16" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -1379,7 +1376,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -1392,32 +1389,32 @@
         <v>1</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="34">
         <v>2</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="34">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G17" s="34">
-        <v>2</v>
+        <v>300</v>
       </c>
       <c r="H17" s="34">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I17" s="34">
-        <v>2</v>
+        <v>4950</v>
       </c>
       <c r="J17" s="34">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="K17" s="34">
-        <v>2</v>
+        <v>4950</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" t="s">
@@ -1433,32 +1430,32 @@
         <v>2</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="34"/>
       <c r="D18" s="34">
         <v>1200</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" s="34">
-        <v>1</v>
+        <v>2320</v>
       </c>
       <c r="G18" s="34">
-        <v>1200</v>
+        <v>2784000</v>
       </c>
       <c r="H18" s="34">
-        <v>1200</v>
+        <v>3</v>
       </c>
       <c r="I18" s="34">
-        <v>1200</v>
+        <v>6960</v>
       </c>
       <c r="J18" s="34">
-        <v>1200</v>
+        <v>3</v>
       </c>
       <c r="K18" s="34">
-        <v>1200</v>
+        <v>6960</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>18</v>
@@ -1474,32 +1471,32 @@
         <v>3</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="34"/>
       <c r="D19" s="34">
         <v>23</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="34">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G19" s="34">
-        <v>23</v>
+        <v>3680</v>
       </c>
       <c r="H19" s="34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I19" s="34">
-        <v>23</v>
+        <v>5280</v>
       </c>
       <c r="J19" s="34">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K19" s="34">
-        <v>23</v>
+        <v>5280</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>19</v>
@@ -1515,32 +1512,32 @@
         <v>4</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="34">
         <v>50</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F20" s="34">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="G20" s="34">
-        <v>50</v>
+        <v>8000</v>
       </c>
       <c r="H20" s="34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I20" s="34">
-        <v>50</v>
+        <v>3520</v>
       </c>
       <c r="J20" s="34">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="K20" s="34">
-        <v>50</v>
+        <v>3520</v>
       </c>
       <c r="L20" s="9" t="s">
         <v>20</v>
@@ -1553,7 +1550,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1564,10 +1561,10 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K21" s="35">
-        <v>5856320</v>
+        <v>5708180</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>21</v>
@@ -1579,7 +1576,7 @@
         <v>12234</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1595,7 +1592,7 @@
       <c r="J22"/>
       <c r="K22" s="11"/>
       <c r="L22" s="10" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -1604,12 +1601,12 @@
         <v>12234</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1630,7 +1627,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -1643,7 +1640,7 @@
       <c r="J24"/>
       <c r="K24" s="11"/>
       <c r="L24" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -1652,7 +1649,7 @@
         <v>12234</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1676,7 +1673,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="L26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26"/>
       <c r="N26"/>
@@ -1685,68 +1682,68 @@
         <v>12234</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="L27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="L28" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="L29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="L30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="L31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M31"/>
       <c r="N31"/>
@@ -1755,7 +1752,7 @@
         <v>12234</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1776,25 +1773,25 @@
     </row>
     <row r="34" spans="1:17">
       <c r="L34" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="1:17">
       <c r="L35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q35" s="11"/>
     </row>
@@ -1816,25 +1813,25 @@
     </row>
     <row r="38" spans="1:17">
       <c r="L38" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q38" s="11"/>
     </row>
     <row r="39" spans="1:17">
       <c r="L39" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="11"/>
     </row>
@@ -1848,25 +1845,25 @@
     </row>
     <row r="41" spans="1:17">
       <c r="L41" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q41" s="11"/>
     </row>
     <row r="42" spans="1:17">
       <c r="L42" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q42" s="11"/>
     </row>
@@ -1888,7 +1885,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="L45" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -1906,7 +1903,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="L47" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M47"/>
       <c r="N47"/>
@@ -1932,7 +1929,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="L50" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
